--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\User_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B976EA1-3EE5-4CC0-8844-D4709025FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="SGDClassifier" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>model</t>
   </si>
@@ -220,12 +220,108 @@
   </si>
   <si>
     <t>0.94824</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8600043484189314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7990650278044514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9116700943389061 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9035335816443324 </t>
+  </si>
+  <si>
+    <t>sin_hour</t>
+  </si>
+  <si>
+    <t>cos_hour</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893818714662222 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9183054824364033 </t>
+  </si>
+  <si>
+    <t>StandartScaler</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>hour_minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9191420326909544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9104311485718956 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9165319352784408 </t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920408889525207 </t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9171439342074607 </t>
+  </si>
+  <si>
+    <t>year_month</t>
+  </si>
+  <si>
+    <t>hour_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9323758313310435 </t>
+  </si>
+  <si>
+    <t>dummy_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9130457270169545 </t>
+  </si>
+  <si>
+    <t>0.94882</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,13 +383,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -325,13 +424,50 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-B3BFC84D2366E720731E9E34DE2B3CF0/1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1588" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -619,29 +755,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -671,18 +807,18 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -696,7 +832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -704,7 +840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -712,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -726,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -740,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -754,7 +890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -766,7 +902,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -780,7 +916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -794,7 +930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -805,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -813,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -827,7 +963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -841,7 +977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -853,7 +989,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -867,7 +1003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -881,7 +1017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>3</v>
       </c>
@@ -894,14 +1030,14 @@
       <c r="H28" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,7 +1045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
@@ -917,7 +1053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
@@ -933,4 +1069,309 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="7"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="7"/>
+    <col min="19" max="19" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1675D947-64AB-47FD-989E-49AE5E3063CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
   <si>
     <t>model</t>
   </si>
@@ -316,12 +317,54 @@
   </si>
   <si>
     <t>0.94882</t>
+  </si>
+  <si>
+    <t>hour_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9327937119878204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9349913447341495 </t>
+  </si>
+  <si>
+    <t>0.95034</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9353851373113711 </t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9369922517305278 </t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9373161534312052 </t>
+  </si>
+  <si>
+    <t>0.95257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9375198540384677 </t>
+  </si>
+  <si>
+    <t>session_duration</t>
+  </si>
+  <si>
+    <t>0.95319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,15 +427,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png"/>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -467,7 +517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -755,29 +811,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A8:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -807,18 +863,18 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -832,7 +888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -840,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -848,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -862,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -876,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -890,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -902,7 +958,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -916,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -930,7 +986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -941,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,7 +1005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -963,7 +1019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -977,7 +1033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -989,7 +1045,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>3</v>
       </c>
@@ -1033,11 +1089,8 @@
       <c r="I28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1045,19 +1098,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E30" s="1"/>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1072,301 +1137,618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A7:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="7"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="7"/>
-    <col min="17" max="17" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="7"/>
+    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="6"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="6" max="9" width="9.1328125" style="6"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
+    <col min="14" max="14" width="6" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1328125" style="6"/>
+    <col min="17" max="17" width="11.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1328125" style="6"/>
+    <col min="19" max="19" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1328125" style="6"/>
+    <col min="22" max="22" width="14.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="R7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="C8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="C9"/>
+      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="C10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="C11"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="C12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="C13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="C14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="K14" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="C15"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="K15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="L15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="C16"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="K16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="C17"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="K17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="C18"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="K18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="K19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="C20"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="K20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="K21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="K22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="K23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="K24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="K25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="K26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>71</v>
       </c>
     </row>

--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1675D947-64AB-47FD-989E-49AE5E3063CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
   <si>
     <t>model</t>
   </si>
@@ -359,12 +358,33 @@
   </si>
   <si>
     <t>0.95319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937741720019455  </t>
+  </si>
+  <si>
+    <t>has_top10</t>
+  </si>
+  <si>
+    <t>n_sites</t>
+  </si>
+  <si>
+    <t>n_unique</t>
+  </si>
+  <si>
+    <t>0.9368729969676195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9357151130459027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9384757285805904 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,13 +450,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,13 +488,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-B48A3787D8A6A5083746095E983D69A9/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -517,13 +531,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-FD9D0B08863FD7EBB1D3FC206A5503EF/1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-B48A3787D8A6A5083746095E983D69A9/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -811,29 +819,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -863,18 +871,18 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="E11" s="7" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -888,7 +896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -896,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -904,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -918,7 +926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -932,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -946,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -958,7 +966,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -972,7 +980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -986,7 +994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1053,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
       <c r="H30" t="s">
         <v>106</v>
@@ -1110,7 +1118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1137,33 +1145,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:V26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="6"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="6" max="9" width="9.1328125" style="6"/>
-    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" customWidth="1"/>
-    <col min="14" max="14" width="6" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1328125" style="6"/>
-    <col min="17" max="17" width="11.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1328125" style="6"/>
-    <col min="19" max="19" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1328125" style="6"/>
-    <col min="22" max="22" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>65</v>
@@ -1228,8 +1248,17 @@
       <c r="V7" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>72</v>
@@ -1242,7 +1271,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>73</v>
@@ -1257,7 +1286,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>74</v>
@@ -1278,7 +1307,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>75</v>
@@ -1303,7 +1332,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>79</v>
@@ -1327,7 +1356,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>80</v>
@@ -1354,7 +1383,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>84</v>
@@ -1378,7 +1407,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>85</v>
@@ -1404,7 +1433,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>86</v>
@@ -1430,7 +1459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>88</v>
@@ -1457,7 +1486,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>90</v>
@@ -1484,10 +1513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -1515,7 +1541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>95</v>
@@ -1542,7 +1568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>98</v>
@@ -1572,11 +1598,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1605,7 +1631,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>102</v>
       </c>
@@ -1638,7 +1664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>104</v>
       </c>
@@ -1671,11 +1697,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1710,11 +1736,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1752,8 +1778,138 @@
         <v>71</v>
       </c>
     </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="K27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="K28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="K29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
   <si>
     <t>model</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t xml:space="preserve">0.9384757285805904 </t>
+  </si>
+  <si>
+    <t>0.95246</t>
+  </si>
+  <si>
+    <t>overfitting</t>
   </si>
 </sst>
 </file>
@@ -418,12 +424,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,6 +466,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,7 +502,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-B48A3787D8A6A5083746095E983D69A9/1.png"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -531,7 +545,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-B48A3787D8A6A5083746095E983D69A9/1.png"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1146,14 +1160,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y29"/>
+  <dimension ref="A7:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
@@ -1178,11 +1193,6 @@
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
@@ -1737,10 +1747,13 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
       <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1864,10 +1877,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>117</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>71</v>

--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C8E6D-E46E-49B7-B162-8096F385644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>model</t>
   </si>
@@ -174,9 +175,6 @@
     <t>0.94310</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>bag of sites; CountVectorizer (1, 2)-grams 20k; morning, day, evening, night, weekday, duration, year_month</t>
   </si>
   <si>
@@ -385,12 +383,39 @@
   </si>
   <si>
     <t>overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937618123149331 </t>
+  </si>
+  <si>
+    <t>7_unique</t>
+  </si>
+  <si>
+    <t>0.95340</t>
+  </si>
+  <si>
+    <t>0.94876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9144307686524599 </t>
+  </si>
+  <si>
+    <t>balanced</t>
+  </si>
+  <si>
+    <t>0.95766</t>
+  </si>
+  <si>
+    <t>0.9375190037899295</t>
+  </si>
+  <si>
+    <t>{'alpha': 3.6e-05, 'penalty': 'l2'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,14 +488,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -545,7 +579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -833,29 +873,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A8:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -885,18 +925,18 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="8" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -910,7 +950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -918,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -926,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -940,7 +980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -954,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -968,7 +1008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -980,7 +1020,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -994,7 +1034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -1008,7 +1048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1019,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -1041,78 +1081,78 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
         <v>53</v>
       </c>
-      <c r="H25" t="s">
-        <v>54</v>
-      </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
         <v>55</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
         <v>58</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1120,19 +1160,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E30" s="1"/>
       <c r="H30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1140,11 +1177,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E32" s="1"/>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1159,119 +1205,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:Y29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A7:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="6"/>
+    <col min="8" max="8" width="7.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="H7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="Q7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="Y7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="6"/>
@@ -1281,14 +1338,14 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6"/>
       <c r="H9"/>
@@ -1296,631 +1353,772 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="K14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="K15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="K16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="K17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="K18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="K19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="P19" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="K20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Q20" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="K21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="P21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="K22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="K23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="K24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="K25" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="K26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="K27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="K28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="K29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="K30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="K31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="K32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C8E6D-E46E-49B7-B162-8096F385644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169E648-69ED-442D-BF27-14A920FDDD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="SGDClassifier" sheetId="2" r:id="rId2"/>
+    <sheet name="2014" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="176">
   <si>
     <t>model</t>
   </si>
@@ -410,6 +411,150 @@
   </si>
   <si>
     <t>{'alpha': 3.6e-05, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>GridSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9415209701073621 </t>
+  </si>
+  <si>
+    <t>9 splits</t>
+  </si>
+  <si>
+    <t>0.95130</t>
+  </si>
+  <si>
+    <t>select_2014</t>
+  </si>
+  <si>
+    <t>0.95447</t>
+  </si>
+  <si>
+    <t>0.9443275571512948</t>
+  </si>
+  <si>
+    <t>{'alpha': 3e-05, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>0.95415</t>
+  </si>
+  <si>
+    <t>{'alpha': 3e-05, 'penalty': 'l2'}, 9 splits</t>
+  </si>
+  <si>
+    <t>get_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9416739923321461 </t>
+  </si>
+  <si>
+    <t>0.9433233927807163</t>
+  </si>
+  <si>
+    <t>{'alpha': 5e-05, 'penalty': 'l2'}, 9</t>
+  </si>
+  <si>
+    <t>0.95570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9256284137102089 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9039085994061264  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9140026722629019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9175839085013201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910441519249788 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9109380618169136 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9217609549285241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9180563312936046 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9239097673061215 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9164207889101886 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9251009464197831 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9080992128512198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9284559520793275 </t>
+  </si>
+  <si>
+    <t>7-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9391169250204923 </t>
+  </si>
+  <si>
+    <t>7-11, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9445989900130195 </t>
+  </si>
+  <si>
+    <t>7-11, 14, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9451830814080606 </t>
+  </si>
+  <si>
+    <t>7-11, 14, 15, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9461439565585379 </t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9554839470991863 </t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9563935001572739 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9573044868347443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9592497548066183 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9592523831407013 </t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9464203909033788 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9506021069126641 </t>
+  </si>
+  <si>
+    <t>0.9608092117800415</t>
+  </si>
+  <si>
+    <t>0.91253</t>
   </si>
 </sst>
 </file>
@@ -463,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -471,11 +616,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,11 +643,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -926,12 +1092,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,15 +1372,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:AB32"/>
+  <dimension ref="A7:AD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
     <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
@@ -1242,9 +1408,11 @@
     <col min="26" max="26" width="8.06640625" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.796875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.06640625" style="6"/>
+    <col min="29" max="29" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>64</v>
@@ -1324,8 +1492,17 @@
       <c r="AA7" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AB7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>71</v>
@@ -1338,7 +1515,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>72</v>
@@ -1353,7 +1530,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>73</v>
@@ -1374,7 +1551,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>74</v>
@@ -1399,7 +1576,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>78</v>
@@ -1423,7 +1600,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>79</v>
@@ -1450,7 +1627,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>83</v>
@@ -1474,7 +1651,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>84</v>
@@ -1500,7 +1677,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>85</v>
@@ -1526,7 +1703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>87</v>
@@ -1553,7 +1730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>89</v>
@@ -1580,7 +1757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1608,7 +1785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>94</v>
@@ -1635,7 +1812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>97</v>
@@ -1665,7 +1842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -1698,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>101</v>
       </c>
@@ -1731,7 +1908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -1764,7 +1941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>105</v>
       </c>
@@ -1803,14 +1980,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1848,7 +2025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>114</v>
       </c>
@@ -1890,7 +2067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>115</v>
       </c>
@@ -1932,7 +2109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>118</v>
       </c>
@@ -1980,7 +2157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -2025,7 +2202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -2073,14 +2250,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2118,6 +2295,222 @@
         <v>70</v>
       </c>
       <c r="Z32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="K33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="K34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="K35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="K36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2126,4 +2519,604 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76E994C-8732-4A89-BA22-E902373FC1BE}">
+  <dimension ref="A5:W31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.9296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="6"/>
+    <col min="16" max="16" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.06640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625" style="6"/>
+    <col min="22" max="22" width="7.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.06640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="K5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B20" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N20" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169E648-69ED-442D-BF27-14A920FDDD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="185">
   <si>
     <t>model</t>
   </si>
@@ -555,12 +554,39 @@
   </si>
   <si>
     <t>0.91253</t>
+  </si>
+  <si>
+    <t>0.95642</t>
+  </si>
+  <si>
+    <t>0.9424785992599141</t>
+  </si>
+  <si>
+    <t>{'alpha': 3.4e-05, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9480712677275065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9512020472974595 </t>
+  </si>
+  <si>
+    <t>0.9517597294399154</t>
+  </si>
+  <si>
+    <t>{'alpha': 5e-05, 'penalty': 'l2'}</t>
+  </si>
+  <si>
+    <t>0.95309</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,9 +685,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,13 +722,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -745,13 +765,50 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-7500C9C76CEBFA3E4567AC715FAEBEC2/1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1588" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1039,29 +1096,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -1091,18 +1148,18 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="E11" s="11" t="s">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -1186,7 +1243,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -1200,7 +1257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -1247,7 +1304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1330,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
       <c r="H30" t="s">
         <v>105</v>
@@ -1335,7 +1392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="H32" t="s">
         <v>126</v>
@@ -1352,7 +1409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1371,48 +1428,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="6"/>
-    <col min="8" max="8" width="7.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.06640625" style="6"/>
-    <col min="29" max="29" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.06640625" style="6"/>
+    <col min="26" max="26" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="6"/>
+    <col min="29" max="29" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>64</v>
@@ -1502,7 +1559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>71</v>
@@ -1515,7 +1572,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>72</v>
@@ -1530,7 +1587,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>73</v>
@@ -1551,7 +1608,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>74</v>
@@ -1576,7 +1633,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>78</v>
@@ -1600,7 +1657,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>79</v>
@@ -1627,7 +1684,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>83</v>
@@ -1651,7 +1708,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>84</v>
@@ -1677,7 +1734,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>85</v>
@@ -1703,7 +1760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>87</v>
@@ -1730,7 +1787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>89</v>
@@ -1757,7 +1814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1785,7 +1842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>94</v>
@@ -1812,7 +1869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>97</v>
@@ -1842,7 +1899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -1875,7 +1932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>101</v>
       </c>
@@ -1908,7 +1965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -1941,7 +1998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>105</v>
       </c>
@@ -1980,7 +2037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2025,7 +2082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>114</v>
       </c>
@@ -2067,7 +2124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>115</v>
       </c>
@@ -2109,7 +2166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>118</v>
       </c>
@@ -2157,7 +2214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -2202,7 +2259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -2250,7 +2307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
@@ -2301,7 +2358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -2352,7 +2409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>137</v>
       </c>
@@ -2406,7 +2463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2460,7 +2517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>141</v>
       </c>
@@ -2522,47 +2579,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76E994C-8732-4A89-BA22-E902373FC1BE}">
-  <dimension ref="A5:W31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.9296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="6"/>
-    <col min="16" max="16" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.06640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.06640625" style="6"/>
-    <col min="22" max="22" width="7.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K5" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>130</v>
       </c>
@@ -2602,7 +2661,7 @@
       <c r="M6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>93</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -2615,25 +2674,31 @@
         <v>166</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="V6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="W6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
@@ -2641,7 +2706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>145</v>
       </c>
@@ -2652,7 +2717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>146</v>
       </c>
@@ -2663,7 +2728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>147</v>
       </c>
@@ -2674,7 +2739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>148</v>
       </c>
@@ -2682,7 +2747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>149</v>
       </c>
@@ -2693,8 +2758,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -2707,7 +2772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>150</v>
       </c>
@@ -2727,7 +2792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>151</v>
       </c>
@@ -2744,7 +2809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>152</v>
       </c>
@@ -2761,7 +2826,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>153</v>
       </c>
@@ -2778,7 +2843,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>154</v>
       </c>
@@ -2791,12 +2856,12 @@
       <c r="G18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
+      <c r="N18" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -2808,12 +2873,12 @@
       <c r="G19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2825,12 +2890,12 @@
       <c r="G20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>159</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2842,12 +2907,12 @@
       <c r="G21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2859,11 +2924,11 @@
       <c r="G22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>163</v>
       </c>
@@ -2876,14 +2941,14 @@
       <c r="G23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>165</v>
       </c>
@@ -2896,7 +2961,7 @@
       <c r="G24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P24" s="6" t="s">
@@ -2906,7 +2971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>167</v>
       </c>
@@ -2919,7 +2984,7 @@
       <c r="G25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -2928,11 +2993,11 @@
       <c r="Q25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="T25" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>168</v>
       </c>
@@ -2945,7 +3010,7 @@
       <c r="G26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -2954,14 +3019,14 @@
       <c r="Q26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="T26" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -2974,7 +3039,7 @@
       <c r="G27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P27" s="6" t="s">
@@ -2983,14 +3048,14 @@
       <c r="Q27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27" s="6">
+      <c r="T27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>170</v>
       </c>
@@ -3003,7 +3068,7 @@
       <c r="G28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P28" s="6" t="s">
@@ -3012,14 +3077,14 @@
       <c r="Q28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="T28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V28" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>172</v>
       </c>
@@ -3032,7 +3097,7 @@
       <c r="G29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P29" s="6" t="s">
@@ -3041,14 +3106,14 @@
       <c r="Q29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="T29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>173</v>
       </c>
@@ -3061,7 +3126,7 @@
       <c r="G30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P30" s="6" t="s">
@@ -3070,15 +3135,15 @@
       <c r="Q30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="14" t="s">
+      <c r="T30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3096,7 +3161,7 @@
       <c r="G31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="12" t="s">
         <v>162</v>
       </c>
       <c r="P31" s="6" t="s">
@@ -3105,10 +3170,141 @@
       <c r="Q31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="W31" s="6" t="s">
+      <c r="T31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V35" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3118,5 +3314,6 @@
   <ignoredErrors>
     <ignoredError sqref="N20" twoDigitTextYear="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/6_Final_projects/1_user_identification/kaggle/results.xlsx
+++ b/6_Final_projects/1_user_identification/kaggle/results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692075\Git\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Git\Uniholder\Specialization-Yandex-MIPT\6_Final_projects\1_user_identification\kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59F5EC3-FD9C-483F-9D9D-5D8676EE4364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15675" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -586,7 +587,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,7 +691,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,7 +723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -765,7 +772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -808,7 +821,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="http://EDFF839C2394240D7A6C69EF7AF40BB7.dms.sberbank.ru/EDFF839C2394240D7A6C69EF7AF40BB7-86AB11783FAC1265EF5A2B999A130797-A537C7BA8E009B4E702662A40CFA0686/1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1096,29 +1115,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.45">
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1167,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -1243,7 +1262,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>39</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -1271,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1349,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1383,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E30" s="1"/>
       <c r="H30" t="s">
         <v>105</v>
@@ -1392,7 +1411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E32" s="1"/>
       <c r="H32" t="s">
         <v>126</v>
@@ -1409,7 +1428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,48 +1447,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A7:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="6"/>
+    <col min="8" max="8" width="7.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="6"/>
-    <col min="29" max="29" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>64</v>
@@ -1559,7 +1578,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>71</v>
@@ -1572,7 +1591,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>72</v>
@@ -1587,7 +1606,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>73</v>
@@ -1608,7 +1627,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>74</v>
@@ -1633,7 +1652,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>78</v>
@@ -1657,7 +1676,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>79</v>
@@ -1684,7 +1703,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>83</v>
@@ -1708,7 +1727,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>84</v>
@@ -1734,7 +1753,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>85</v>
@@ -1760,7 +1779,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>87</v>
@@ -1787,7 +1806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>89</v>
@@ -1814,7 +1833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1842,7 +1861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>94</v>
@@ -1869,7 +1888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>97</v>
@@ -1899,7 +1918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>101</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>103</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>105</v>
       </c>
@@ -2037,7 +2056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2082,7 +2101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>114</v>
       </c>
@@ -2124,7 +2143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>115</v>
       </c>
@@ -2166,7 +2185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>118</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -2259,7 +2278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
@@ -2358,7 +2377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>137</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2517,7 +2536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>141</v>
       </c>
@@ -2579,49 +2598,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K5" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>130</v>
       </c>
@@ -2698,7 +2717,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>145</v>
       </c>
@@ -2717,7 +2736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>146</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>147</v>
       </c>
@@ -2739,7 +2758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>148</v>
       </c>
@@ -2747,7 +2766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>149</v>
       </c>
@@ -2758,7 +2777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>143</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>150</v>
       </c>
@@ -2792,7 +2811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>151</v>
       </c>
@@ -2809,7 +2828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>152</v>
       </c>
@@ -2826,7 +2845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>153</v>
       </c>
@@ -2843,7 +2862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>154</v>
       </c>
@@ -2860,7 +2879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>155</v>
       </c>
@@ -2877,7 +2896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>157</v>
       </c>
@@ -2894,7 +2913,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
         <v>159</v>
       </c>
@@ -2911,7 +2930,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>161</v>
       </c>
@@ -2928,7 +2947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>163</v>
       </c>
@@ -2948,7 +2967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>165</v>
       </c>
@@ -2971,7 +2990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>167</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>168</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -3055,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>170</v>
       </c>
@@ -3084,7 +3103,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>172</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>173</v>
       </c>
@@ -3142,7 +3161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>135</v>
       </c>
@@ -3177,7 +3196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>178</v>
       </c>
@@ -3215,7 +3234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>180</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>181</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>183</v>
       </c>
